--- a/biology/Botanique/Jaltomata/Jaltomata.xlsx
+++ b/biology/Botanique/Jaltomata/Jaltomata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jaltomata est un genre de plantes de la famille des Solanaceae. Ce genre comprend environ 50 espèces qui se rencontrent dans les régions néotropicales. Ce sont des plantes pérennes, herbacées ou buissonnantes, ne dépassant pas 5 m de hauteur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jaltomata est un genre de plantes de la famille des Solanaceae. Ce genre comprend environ 50 espèces qui se rencontrent dans les régions néotropicales. Ce sont des plantes pérennes, herbacées ou buissonnantes, ne dépassant pas 5 m de hauteur.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (3 févr. 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (3 févr. 2012) :
 Jaltomata andersonii
 Jaltomata antillana
 Jaltomata aspera
